--- a/Sincro/Multicriteria.xlsx
+++ b/Sincro/Multicriteria.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Du 01-01-2020 au 30-11-2020" sheetId="1" r:id="rId4"/>
+    <sheet name="Du 01-01-2020 au 31-01-2021" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Service</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>CLAUDINE</t>
+  </si>
+  <si>
+    <t>OSORIO BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>FERNEY</t>
   </si>
 </sst>
 </file>
@@ -575,7 +581,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BI7"/>
+  <dimension ref="A1:BI8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,16 +944,16 @@
         <v>5.5</v>
       </c>
       <c r="BE2">
-        <v>43</v>
+        <v>45.5</v>
       </c>
       <c r="BF2">
-        <v>115.75</v>
+        <v>140.25</v>
       </c>
       <c r="BG2">
-        <v>164.25</v>
+        <v>191.25</v>
       </c>
       <c r="BH2">
-        <v>46.75</v>
+        <v>69.25</v>
       </c>
       <c r="BI2">
         <v>0</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -1120,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="BE3">
-        <v>110.25</v>
+        <v>140.5</v>
       </c>
       <c r="BF3">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="BG3">
-        <v>170.75</v>
+        <v>215.5</v>
       </c>
       <c r="BH3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BI3">
         <v>0</v>
@@ -1206,7 +1212,7 @@
         <v>0.5</v>
       </c>
       <c r="W4">
-        <v>6.5</v>
+        <v>13.75</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1233,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1281,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -1296,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="BB4">
         <v>0</v>
@@ -1305,19 +1311,19 @@
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>40.25</v>
+        <v>50</v>
       </c>
       <c r="BE4">
-        <v>58.75</v>
+        <v>63.75</v>
       </c>
       <c r="BF4">
-        <v>72.75</v>
+        <v>100.5</v>
       </c>
       <c r="BG4">
-        <v>171.75</v>
+        <v>214.25</v>
       </c>
       <c r="BH4">
-        <v>28.75</v>
+        <v>38.75</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -1493,13 +1499,13 @@
         <v>4</v>
       </c>
       <c r="BE5">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="BF5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BG5">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="BH5">
         <v>23</v>
@@ -1576,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1639,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -1678,22 +1684,207 @@
         <v>12</v>
       </c>
       <c r="BE6">
-        <v>185.5</v>
+        <v>221</v>
       </c>
       <c r="BF6">
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>197.5</v>
+        <v>233</v>
       </c>
       <c r="BH6">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BI6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" customHeight="1" ht="20"/>
+    <row r="7" spans="1:61" customHeight="1" ht="20">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>14</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>1</v>
+      </c>
+      <c r="BC7">
+        <v>2</v>
+      </c>
+      <c r="BD7">
+        <v>17</v>
+      </c>
+      <c r="BE7">
+        <v>42</v>
+      </c>
+      <c r="BF7">
+        <v>0</v>
+      </c>
+      <c r="BG7">
+        <v>59</v>
+      </c>
+      <c r="BH7">
+        <v>8</v>
+      </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" customHeight="1" ht="20"/>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
